--- a/starter/src/main/resources/static/file/微语产品报价单.xlsx
+++ b/starter/src/main/resources/static/file/微语产品报价单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26760" windowHeight="13840"/>
+    <workbookView windowHeight="15680"/>
   </bookViews>
   <sheets>
     <sheet name="微语 产品报价单" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <t>报价日期：</t>
   </si>
   <si>
-    <t>25 年 4 月 16 日</t>
+    <t>25 年 7 月 14 日</t>
   </si>
   <si>
     <t>有效期限：</t>
@@ -1478,7 +1478,7 @@
   <dimension ref="A1:L200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="K2" sqref="K2:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4"/>
